--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/38.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/38.xlsx
@@ -479,13 +479,13 @@
         <v>0.07406978460209765</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.812659981188728</v>
+        <v>-1.811389747757838</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04051143127463668</v>
+        <v>0.04067670328237325</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07430696754776329</v>
+        <v>-0.07465639979269205</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.0881194214883477</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.846037056655909</v>
+        <v>-1.845454669581028</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01533027337206827</v>
+        <v>0.01571276001854434</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06300551025682435</v>
+        <v>-0.06297245585527704</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1026041543656412</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.94625013205176</v>
+        <v>-1.945714965550518</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01397638864742923</v>
+        <v>-0.01426286012750596</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06053902229374618</v>
+        <v>-0.06100178391540858</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1037287530100581</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.998967180462363</v>
+        <v>-1.997789027150069</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03539878888833159</v>
+        <v>-0.03555304276221906</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.05823623231928327</v>
+        <v>-0.05855418418178601</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.08201602057225645</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.967420689233254</v>
+        <v>-1.965468118513281</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02427204771985703</v>
+        <v>-0.02405325906199623</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07096217691499933</v>
+        <v>-0.0715713223149427</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.03271090496092954</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.845062738819824</v>
+        <v>-1.842743421644587</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01663356120450524</v>
+        <v>0.01686651603445775</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06667454882857626</v>
+        <v>-0.06683352475982762</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.04203258341474414</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.581840308174271</v>
+        <v>-1.579007073755929</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05647041114550435</v>
+        <v>0.05647198516462565</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06365558015392155</v>
+        <v>-0.06371539288053096</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1336061813849606</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.187346256831361</v>
+        <v>-1.183751984167871</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05506638608930414</v>
+        <v>0.05466028915600856</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04979791580999028</v>
+        <v>-0.04976958346580687</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2265051526491298</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.683716802703508</v>
+        <v>-0.6799674891565698</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05113291230517372</v>
+        <v>0.05057098747886937</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01798541534938208</v>
+        <v>-0.01819161185427247</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2981826053246947</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1751291883435576</v>
+        <v>-0.1714774639821399</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04206948192440391</v>
+        <v>-0.04277149445250401</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02089915302323011</v>
+        <v>0.02066934623152021</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.326053354265419</v>
       </c>
       <c r="E12" t="n">
-        <v>0.406708553864363</v>
+        <v>0.4106247134381591</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2292093373132066</v>
+        <v>-0.2293525730532449</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08321614405464564</v>
+        <v>0.08285884171411038</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2933402965176968</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9802575113795141</v>
+        <v>0.9847576320473128</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5210340564214754</v>
+        <v>-0.5204406512127451</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1754206101613186</v>
+        <v>0.1749735887308692</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1953448887172944</v>
       </c>
       <c r="E14" t="n">
-        <v>1.5630459611367</v>
+        <v>1.568057638018922</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8368893254546418</v>
+        <v>-0.8358835272361307</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2871728197354249</v>
+        <v>0.2861449852492155</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.03834910273065675</v>
       </c>
       <c r="E15" t="n">
-        <v>2.233754396952379</v>
+        <v>2.239771872053112</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.176170721070126</v>
+        <v>-1.175023261130698</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4076277810312026</v>
+        <v>0.4067353121894251</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1604626121698278</v>
       </c>
       <c r="E16" t="n">
-        <v>2.767238271753942</v>
+        <v>2.774003405937293</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.525925639918746</v>
+        <v>-1.524734107443921</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5296850937924644</v>
+        <v>0.5292113140369529</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3774120039090892</v>
       </c>
       <c r="E17" t="n">
-        <v>3.265335048670424</v>
+        <v>3.272122219121472</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.867223354028616</v>
+        <v>-1.866028673515549</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6570295367821752</v>
+        <v>0.6560158684680576</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.591148076507477</v>
       </c>
       <c r="E18" t="n">
-        <v>3.686120728405979</v>
+        <v>3.692223200539262</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.187522866050776</v>
+        <v>-2.185567147292559</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8074963206637932</v>
+        <v>0.8068037522504209</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7874936518149802</v>
       </c>
       <c r="E19" t="n">
-        <v>4.039816991134336</v>
+        <v>4.045439387435621</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.545892391550273</v>
+        <v>-2.54357700942284</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9519739617888621</v>
+        <v>0.9512152845723951</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9562749681141989</v>
       </c>
       <c r="E20" t="n">
-        <v>4.347712445471084</v>
+        <v>4.35363705344366</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.875687960931239</v>
+        <v>-2.872779960604636</v>
       </c>
       <c r="G20" t="n">
-        <v>1.080173097161439</v>
+        <v>1.078888697558458</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.088305214186604</v>
       </c>
       <c r="E21" t="n">
-        <v>4.578449482481673</v>
+        <v>4.583317923623857</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.153225308475462</v>
+        <v>-3.149959218798763</v>
       </c>
       <c r="G21" t="n">
-        <v>1.19416985800252</v>
+        <v>1.192479361466243</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.180578124410682</v>
       </c>
       <c r="E22" t="n">
-        <v>4.746779809370933</v>
+        <v>4.751607326015962</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.381106287790451</v>
+        <v>-3.377028791256721</v>
       </c>
       <c r="G22" t="n">
-        <v>1.285524353783691</v>
+        <v>1.283358503472781</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.234442173963407</v>
       </c>
       <c r="E23" t="n">
-        <v>4.86238049569662</v>
+        <v>4.866970335454332</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.521036587674082</v>
+        <v>-3.516955156092549</v>
       </c>
       <c r="G23" t="n">
-        <v>1.365604150598985</v>
+        <v>1.363208493496365</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.25742332655812</v>
       </c>
       <c r="E24" t="n">
-        <v>4.931860847749074</v>
+        <v>4.936472723774485</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.639100613924604</v>
+        <v>-3.634831874067637</v>
       </c>
       <c r="G24" t="n">
-        <v>1.4287191693249</v>
+        <v>1.426191294616091</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.256735261730347</v>
       </c>
       <c r="E25" t="n">
-        <v>4.932067044253965</v>
+        <v>4.936168938084074</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.740247082659386</v>
+        <v>-3.736013758232648</v>
       </c>
       <c r="G25" t="n">
-        <v>1.468208161040091</v>
+        <v>1.465656676044463</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.239308559337228</v>
       </c>
       <c r="E26" t="n">
-        <v>4.926935741918524</v>
+        <v>4.930532375610697</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.755829871960263</v>
+        <v>-3.751812188153143</v>
       </c>
       <c r="G26" t="n">
-        <v>1.495548873177084</v>
+        <v>1.492799061772172</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.209823502204913</v>
       </c>
       <c r="E27" t="n">
-        <v>4.892378152110368</v>
+        <v>4.895373510498203</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.701340478019076</v>
+        <v>-3.698032676835662</v>
       </c>
       <c r="G27" t="n">
-        <v>1.489907588646342</v>
+        <v>1.487274254656406</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.174822780977318</v>
       </c>
       <c r="E28" t="n">
-        <v>4.742596066546516</v>
+        <v>4.745515872016528</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.628686903418079</v>
+        <v>-3.625668721752985</v>
       </c>
       <c r="G28" t="n">
-        <v>1.444900085891871</v>
+        <v>1.442073147550015</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.141177092558631</v>
       </c>
       <c r="E29" t="n">
-        <v>4.617655150755031</v>
+        <v>4.620307372974422</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.537886462367606</v>
+        <v>-3.534998137280019</v>
       </c>
       <c r="G29" t="n">
-        <v>1.398346896360281</v>
+        <v>1.39569467414089</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.115351466103461</v>
       </c>
       <c r="E30" t="n">
-        <v>4.474439872965245</v>
+        <v>4.476416840981599</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.418436512280778</v>
+        <v>-3.414863488875426</v>
       </c>
       <c r="G30" t="n">
-        <v>1.344853856522878</v>
+        <v>1.342275613202187</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.100865130122012</v>
       </c>
       <c r="E31" t="n">
-        <v>4.323499309328116</v>
+        <v>4.325129993137783</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.299018042576377</v>
+        <v>-3.295273451086803</v>
       </c>
       <c r="G31" t="n">
-        <v>1.272831463589522</v>
+        <v>1.270827737248106</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.096310776618106</v>
       </c>
       <c r="E32" t="n">
-        <v>4.18244988184924</v>
+        <v>4.184384351349318</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.162745763130649</v>
+        <v>-3.158780021954532</v>
       </c>
       <c r="G32" t="n">
-        <v>1.205313913381329</v>
+        <v>1.203130748860085</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.096510101869399</v>
       </c>
       <c r="E33" t="n">
-        <v>3.979894083186418</v>
+        <v>3.981658558621396</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.044887933385017</v>
+        <v>-3.040433459271736</v>
       </c>
       <c r="G33" t="n">
-        <v>1.133576417908929</v>
+        <v>1.131561673433664</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.095184148098624</v>
       </c>
       <c r="E34" t="n">
-        <v>3.722379832884262</v>
+        <v>3.724298562193127</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.964363476167956</v>
+        <v>-2.960102606406595</v>
       </c>
       <c r="G34" t="n">
-        <v>1.073873872637994</v>
+        <v>1.071928385004066</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.087122951959033</v>
       </c>
       <c r="E35" t="n">
-        <v>3.481683976893203</v>
+        <v>3.483579095915249</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.877653910813744</v>
+        <v>-2.872913752229947</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9821101318852851</v>
+        <v>0.9797900277004878</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.069216746127788</v>
       </c>
       <c r="E36" t="n">
-        <v>3.227457852535444</v>
+        <v>3.228872895725493</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.805008206308353</v>
+        <v>-2.800969273243096</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9091811039380603</v>
+        <v>0.9069507188431771</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.04063822386457</v>
       </c>
       <c r="E37" t="n">
-        <v>2.976050796423934</v>
+        <v>2.977840456164853</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.705826113436954</v>
+        <v>-2.70187611245205</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8512666443889227</v>
+        <v>0.8495021689539447</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.002045980223736</v>
       </c>
       <c r="E38" t="n">
-        <v>2.69563141986861</v>
+        <v>2.696774157750674</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.611664354552944</v>
+        <v>-2.608288870547315</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7863965943427575</v>
+        <v>0.784446384651466</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9553768971187324</v>
       </c>
       <c r="E39" t="n">
-        <v>2.442472480475093</v>
+        <v>2.443404299794903</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.503132588101019</v>
+        <v>-2.499214854508101</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7168202271239033</v>
+        <v>0.7148747394899756</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9033806776937136</v>
       </c>
       <c r="E40" t="n">
-        <v>2.208393800869982</v>
+        <v>2.209198124640967</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.409053465220877</v>
+        <v>-2.404898054740643</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6599603603860371</v>
+        <v>0.6584430059531033</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8472218963058608</v>
       </c>
       <c r="E41" t="n">
-        <v>2.006562051002959</v>
+        <v>2.007457667882979</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.311254935157101</v>
+        <v>-2.307372616994413</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5946999535977894</v>
+        <v>0.5932392638532223</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.789009307073074</v>
       </c>
       <c r="E42" t="n">
-        <v>1.759867608140623</v>
+        <v>1.760067508569029</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.212404173310736</v>
+        <v>-2.208638332563024</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5235605853914834</v>
+        <v>0.5222368353104696</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7299283136327807</v>
       </c>
       <c r="E43" t="n">
-        <v>1.542755280644013</v>
+        <v>1.542972495282753</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.131210757967122</v>
+        <v>-2.127394548607529</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4695544153205355</v>
+        <v>0.4682967740426163</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6721374222967507</v>
       </c>
       <c r="E44" t="n">
-        <v>1.317448609601911</v>
+        <v>1.317105473433468</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.042561214045906</v>
+        <v>-2.038750513753238</v>
       </c>
       <c r="G44" t="n">
-        <v>0.417507899055607</v>
+        <v>0.4167869982980513</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6163121386061604</v>
       </c>
       <c r="E45" t="n">
-        <v>1.106026361228803</v>
+        <v>1.10578081424588</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.962106800679743</v>
+        <v>-1.958492065767676</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3572843534555214</v>
+        <v>0.3566972443232763</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5639262366864004</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9084271487789572</v>
+        <v>0.9079297587366262</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.894787576880834</v>
+        <v>-1.891219275532845</v>
       </c>
       <c r="G46" t="n">
-        <v>0.288759431009696</v>
+        <v>0.2880904728831432</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5152360761931498</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7493709425524014</v>
+        <v>0.7486799481581504</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.843988470769536</v>
+        <v>-1.840789276905493</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2485794449002533</v>
+        <v>0.2481544597375021</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4699435923881259</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5877900096552793</v>
+        <v>0.5872280848289749</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.77902083153785</v>
+        <v>-1.775622524254962</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2018641313991702</v>
+        <v>0.2017145995826466</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4278989738931976</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4617441324406416</v>
+        <v>0.4609838812050533</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.730249849064349</v>
+        <v>-1.72692394666104</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1513617278922376</v>
+        <v>0.1507935069894481</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3882063340473146</v>
       </c>
       <c r="E50" t="n">
-        <v>0.356177818013247</v>
+        <v>0.3561117092101524</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.670115235544616</v>
+        <v>-1.666432817810334</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1152301189627803</v>
+        <v>0.1150286445152538</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3502086675185729</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2267415036113276</v>
+        <v>0.226492808590162</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.615972912819676</v>
+        <v>-1.612676916779672</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07863889644990324</v>
+        <v>0.07837760927576733</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3135747250491835</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1197113514011234</v>
+        <v>0.1194925627432626</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.574604542273651</v>
+        <v>-1.570944947816627</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04700583416912332</v>
+        <v>0.04690667096448137</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2785322508990584</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03132073362536196</v>
+        <v>0.03067223774738608</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.551921352716587</v>
+        <v>-1.548858311506536</v>
       </c>
       <c r="G53" t="n">
-        <v>0.007479065995020444</v>
+        <v>0.007406661115440612</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2447568170141035</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.05926249278637132</v>
+        <v>-0.06009514890153939</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.534686630347905</v>
+        <v>-1.531548036220032</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01280531842118152</v>
+        <v>-0.01295485023770509</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2126262357906849</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.131552468970348</v>
+        <v>-0.1323504966648475</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.5225784882573</v>
+        <v>-1.519306102504116</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04247557885769949</v>
+        <v>-0.04263770282719345</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1813514317207328</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.1975274804396663</v>
+        <v>-0.1987882697558282</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.527727104803074</v>
+        <v>-1.524531058977273</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07452418218650279</v>
+        <v>-0.07451473807177499</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1513136782078317</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.254343274642136</v>
+        <v>-0.2553711091283453</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.52496234021651</v>
+        <v>-1.521638798841883</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.104184998508293</v>
+        <v>-0.1047941439082363</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1227158709178639</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3367085472215584</v>
+        <v>-0.3380637776849982</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.524080889508581</v>
+        <v>-1.520770727296486</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1254374046840948</v>
+        <v>-0.1258686859233312</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.09699167463997264</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4098972883237977</v>
+        <v>-0.4114177907949742</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.541776012470244</v>
+        <v>-1.538833383722972</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1494065678632617</v>
+        <v>-0.1497717402994035</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.07413128953897516</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4818016298230557</v>
+        <v>-0.4827224310090167</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.555728904971014</v>
+        <v>-1.552905901676961</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1799976294857406</v>
+        <v>-0.180685475841749</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.05373008228202289</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.552665544683134</v>
+        <v>-0.5537783762018936</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.583546544901761</v>
+        <v>-1.580912423902264</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2027374837311716</v>
+        <v>-0.2033230188442955</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.03489917036204591</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6069518901576735</v>
+        <v>-0.6081701809575601</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.614643653671738</v>
+        <v>-1.6115963526529</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2164251540100024</v>
+        <v>-0.2168359730006619</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.01677946533044124</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6585120345141201</v>
+        <v>-0.6598688389966813</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.658564296222951</v>
+        <v>-1.65568305422141</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2491316973315094</v>
+        <v>-0.2496715858901155</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.001232407633618281</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7132438273999876</v>
+        <v>-0.7148052543683179</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.698955200894648</v>
+        <v>-1.696279368388437</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2719234942079434</v>
+        <v>-0.2722083916688988</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.0198319001692228</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.786610432662934</v>
+        <v>-0.7885968447940154</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.743664427025634</v>
+        <v>-1.740975215356892</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2961208901596988</v>
+        <v>-0.2968370688598906</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.03919850597510621</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8564835024861535</v>
+        <v>-0.8592939136272358</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.782714267405983</v>
+        <v>-1.780021907698998</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3178297618806779</v>
+        <v>-0.3182736352728847</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.05943072951295802</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9095987777344451</v>
+        <v>-0.9123493761489181</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.814358347820612</v>
+        <v>-1.811408635987294</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3408655317209135</v>
+        <v>-0.3414117163560048</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.08026063373902867</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9448993045678556</v>
+        <v>-0.948659636248643</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.848689278875301</v>
+        <v>-1.845576656062929</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3642538818443204</v>
+        <v>-0.365026725232879</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1021764085908693</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9652985923799126</v>
+        <v>-0.9694610859461923</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.890929656014526</v>
+        <v>-1.887091410387234</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3833860842637303</v>
+        <v>-0.3840644865050108</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1250356875476612</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.9629210364971879</v>
+        <v>-0.9670701509009365</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.92115161015306</v>
+        <v>-1.917580160766829</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4044055356095796</v>
+        <v>-0.405496330860641</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1488896384776019</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9718150315420975</v>
+        <v>-0.9752810216472015</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.947562863998925</v>
+        <v>-1.943874150188157</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4136670641193129</v>
+        <v>-0.4147972098484068</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.17348007437353</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9706919688990494</v>
+        <v>-0.9747631693562936</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.990125128048456</v>
+        <v>-1.986578075958605</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4189903967875518</v>
+        <v>-0.4200670258665215</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.198612007151975</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9323992317160462</v>
+        <v>-0.9367246362613806</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.014590107250833</v>
+        <v>-2.010462242105222</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4315699576049869</v>
+        <v>-0.4326182543397732</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2236849990654617</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8810688941513095</v>
+        <v>-0.8850842169297476</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.05115771947689</v>
+        <v>-2.047328130954766</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4302682437916712</v>
+        <v>-0.4316108821021407</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2473570245293208</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.821500140505685</v>
+        <v>-0.8256398107947058</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.077658692412669</v>
+        <v>-2.073624481404776</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4374032724685272</v>
+        <v>-0.4386766539376595</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2684522666246906</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7327962929247848</v>
+        <v>-0.7367392108236429</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.106230287502519</v>
+        <v>-2.102790268712917</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4302367634092452</v>
+        <v>-0.4313322807176705</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2865413071782931</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.6356856092170174</v>
+        <v>-0.6400849926610529</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.098236631394994</v>
+        <v>-2.095216088701218</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4172023110657542</v>
+        <v>-0.4180632995251057</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3012962182747356</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5248305905420526</v>
+        <v>-0.5290977563798989</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.10039775964854</v>
+        <v>-2.097851783719836</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4092173120633958</v>
+        <v>-0.4100735784653834</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3121206268471474</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.367712001853818</v>
+        <v>-0.3719193549650547</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.082139924851012</v>
+        <v>-2.079868615258976</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3844973417633685</v>
+        <v>-0.3852749072092911</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3188545861712345</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2263288823212263</v>
+        <v>-0.2308164108360546</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.049010757395436</v>
+        <v>-2.046746530889445</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3645671116494592</v>
+        <v>-0.3654312481470533</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3209405600254293</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.02707065371752965</v>
+        <v>-0.0312984690773433</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.016803178135381</v>
+        <v>-2.014217064719084</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3371429764990374</v>
+        <v>-0.3381944212720662</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3191878687147561</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1433200642015124</v>
+        <v>0.1393913124747459</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.973933193347636</v>
+        <v>-1.971269165984834</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3143023850298431</v>
+        <v>-0.315877978170265</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3141967568258788</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3514856670126497</v>
+        <v>0.3472059090218331</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.91456906218778</v>
+        <v>-1.912188358266813</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2769556333387416</v>
+        <v>-0.2781943863872053</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.306474494974114</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5579938276890573</v>
+        <v>0.5545782061958348</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.831386086674842</v>
+        <v>-1.829390230429033</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2447763864228704</v>
+        <v>-0.2463567016206563</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.297056633749209</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7388816791280537</v>
+        <v>0.7358753026063694</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.715211670379442</v>
+        <v>-1.713286644994091</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2176245565804335</v>
+        <v>-0.2195432858892991</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2867950338104225</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9548182143410524</v>
+        <v>0.9514875898803802</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.622096634211097</v>
+        <v>-1.620665850829834</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1839122150404154</v>
+        <v>-0.185810482100704</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2768988411352966</v>
       </c>
       <c r="E87" t="n">
-        <v>1.163385192028121</v>
+        <v>1.160553531628901</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.497948237047187</v>
+        <v>-1.497184837773356</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1477711619962303</v>
+        <v>-0.1492712022188299</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2679362019825021</v>
       </c>
       <c r="E88" t="n">
-        <v>1.32987549056458</v>
+        <v>1.327629365278484</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.344656875852395</v>
+        <v>-1.343503119836481</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1197268633120159</v>
+        <v>-0.1214708764984171</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2606074746038725</v>
       </c>
       <c r="E89" t="n">
-        <v>1.461463489105318</v>
+        <v>1.459521149509633</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.163558892860705</v>
+        <v>-1.162327222898287</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.09215004830682789</v>
+        <v>-0.09387989532113734</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2553126642898656</v>
       </c>
       <c r="E90" t="n">
-        <v>1.575863198841452</v>
+        <v>1.574084557234382</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.97734849576303</v>
+        <v>-0.9762600615406506</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.06862003646250391</v>
+        <v>-0.07009489237916265</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2512322056672278</v>
       </c>
       <c r="E91" t="n">
-        <v>1.654466565720966</v>
+        <v>1.652217292396627</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7809329456924023</v>
+        <v>-0.7801128817302047</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.07152410174130368</v>
+        <v>-0.07307608459490615</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.248432995375522</v>
       </c>
       <c r="E92" t="n">
-        <v>1.711526332887237</v>
+        <v>1.710120733811915</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.573625183302374</v>
+        <v>-0.573431578950454</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0658623549619851</v>
+        <v>-0.06730573049621784</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2467581420384282</v>
       </c>
       <c r="E93" t="n">
-        <v>1.71776259664583</v>
+        <v>1.716844943498112</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4002139226895559</v>
+        <v>-0.4002202187660411</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.07194751288493356</v>
+        <v>-0.07310756497733217</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2467047907550284</v>
       </c>
       <c r="E94" t="n">
-        <v>1.703738086275041</v>
+        <v>1.702957372790876</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2146842888618438</v>
+        <v>-0.2147976182385775</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.09356194345863461</v>
+        <v>-0.09427182608234122</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2493403505474679</v>
       </c>
       <c r="E95" t="n">
-        <v>1.670537300949446</v>
+        <v>1.66990139722444</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.0752450829440585</v>
+        <v>-0.07507508887895803</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.09838001598893602</v>
+        <v>-0.09921896818058928</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2533655390113027</v>
       </c>
       <c r="E96" t="n">
-        <v>1.605821504777168</v>
+        <v>1.605879743484656</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03591214740219607</v>
+        <v>0.03537540688183254</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1132434785513784</v>
+        <v>-0.1136684637141296</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2553919790022194</v>
       </c>
       <c r="E97" t="n">
-        <v>1.508821002407892</v>
+        <v>1.509579679624359</v>
       </c>
       <c r="F97" t="n">
-        <v>0.09919401215496892</v>
+        <v>0.09859116283151076</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1362855444680992</v>
+        <v>-0.1364822968582618</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2499973767064822</v>
       </c>
       <c r="E98" t="n">
-        <v>1.379310709107271</v>
+        <v>1.379504313459191</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1467844802874952</v>
+        <v>0.1463374588570458</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1446309938492354</v>
+        <v>-0.1448576526027027</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2364049087244439</v>
       </c>
       <c r="E99" t="n">
-        <v>1.251511374591504</v>
+        <v>1.251719145115516</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1600880899007286</v>
+        <v>0.1592806180915014</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1600579552571035</v>
+        <v>-0.1601854508059288</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2132644889074339</v>
       </c>
       <c r="E100" t="n">
-        <v>1.123926106676234</v>
+        <v>1.123992215479329</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1795256520296708</v>
+        <v>0.1784033763961834</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1672354824502346</v>
+        <v>-0.1673614039799386</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1859809288855603</v>
       </c>
       <c r="E101" t="n">
-        <v>1.010872183288813</v>
+        <v>1.011273558164744</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1904965653051366</v>
+        <v>0.1895128033543237</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1908426212315023</v>
+        <v>-0.1909984491245111</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1520137454189492</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8955910228447501</v>
+        <v>0.8958334217894304</v>
       </c>
       <c r="F102" t="n">
-        <v>0.189451416608593</v>
+        <v>0.1879435062903869</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1951727478342005</v>
+        <v>-0.1949382189851267</v>
       </c>
     </row>
   </sheetData>
